--- a/Time recording log.xlsx
+++ b/Time recording log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Desktop\Andrejskaja papka\Uchjoba\IS arendamine 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\source\repos\W2_Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF90C1-B4D3-4D87-86E7-A5F6B7BE1B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A58722F-3AB8-4993-BEF1-CFA145EFD0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <t>Mõistete konspekti kirjutamine, lk</t>
   </si>
   <si>
-    <t>W2_praktikum_Azure_repo</t>
+    <t>W2_praktikum_Azure/GitHub_repo</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
